--- a/backend/database/PostgreSQL-caesb.xlsx
+++ b/backend/database/PostgreSQL-caesb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs\sinfra\COEMANT\SEPLAG\CMMS\Banco de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hzlopes\Desktop\repositories\cmms\backend\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="875" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="875" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pre-raw" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>END IF;</t>
   </si>
   <si>
-    <t>TE 20170002</t>
-  </si>
-  <si>
     <t>309D-000-000</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TE 20170014</t>
   </si>
 </sst>
 </file>
@@ -53856,10 +53856,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -54090,10 +54090,10 @@
         <v>PRIMARY KEY (med, aamm)</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -54101,10 +54101,10 @@
         <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -54170,10 +54170,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -54185,8 +54185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54585,7 +54585,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>65</v>
@@ -54595,7 +54595,7 @@
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO caesb_meters VALUES (214, '008.535-9', 'Setor de Clubes Norte - Clube do Servidor', 'TE 20170002', 'A09S359813', 4);</v>
+        <v>INSERT INTO caesb_meters VALUES (214, '008.535-9', 'Setor de Clubes Norte - Clube do Servidor', 'TE 20170014', 'A09S359813', 4);</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -54615,7 +54615,7 @@
         <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I18" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B18,", '",C18,"');")</f>
@@ -54628,7 +54628,7 @@
         <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B19,", '",C19,"');")</f>
@@ -54641,7 +54641,7 @@
         <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I20" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B20,", '",C20,"');")</f>
@@ -54654,7 +54654,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I21" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B21,", '",C21,"');")</f>
@@ -54667,7 +54667,7 @@
         <v>205</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I22" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B22,", '",C22,"');")</f>
@@ -54680,7 +54680,7 @@
         <v>206</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I23" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B23,", '",C23,"');")</f>
@@ -54693,7 +54693,7 @@
         <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I24" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B24,", '",C24,"');")</f>
@@ -54706,7 +54706,7 @@
         <v>207</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I25" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B25,", '",C25,"');")</f>
@@ -54719,7 +54719,7 @@
         <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I26" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B26,", '",C26,"');")</f>
@@ -54732,7 +54732,7 @@
         <v>207</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I27" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B27,", '",C27,"');")</f>
@@ -54745,7 +54745,7 @@
         <v>207</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B28,", '",C28,"');")</f>
@@ -54758,7 +54758,7 @@
         <v>207</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B29,", '",C29,"');")</f>
@@ -54771,7 +54771,7 @@
         <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I30" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B30,", '",C30,"');")</f>
@@ -54784,7 +54784,7 @@
         <v>207</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B31,", '",C31,"');")</f>
@@ -54797,7 +54797,7 @@
         <v>208</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I32" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B32,", '",C32,"');")</f>
@@ -54810,7 +54810,7 @@
         <v>208</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I33" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B33,", '",C33,"');")</f>
@@ -54822,7 +54822,7 @@
         <v>209</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I34" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B34,", '",C34,"');")</f>
@@ -54835,7 +54835,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I35" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B35,", '",C35,"');")</f>
@@ -54848,7 +54848,7 @@
         <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I36" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B36,", '",C36,"');")</f>
@@ -54861,7 +54861,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I37" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B37,", '",C37,"');")</f>
@@ -54874,7 +54874,7 @@
         <v>211</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I38" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B38,", '",C38,"');")</f>
@@ -54887,7 +54887,7 @@
         <v>212</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I39" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B39,", '",C39,"');")</f>
@@ -54900,7 +54900,7 @@
         <v>212</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I40" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B40,", '",C40,"');")</f>
@@ -54913,7 +54913,7 @@
         <v>213</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I41" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B41,", '",C41,"');")</f>
@@ -54926,7 +54926,7 @@
         <v>213</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I42" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B42,", '",C42,"');")</f>
@@ -54939,7 +54939,7 @@
         <v>214</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I43" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B43,", '",C43,"');")</f>
@@ -57449,10 +57449,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -57460,10 +57460,10 @@
         <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -57472,10 +57472,10 @@
         <v>a.med,</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -57484,10 +57484,10 @@
         <v>a.id,</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -57496,10 +57496,10 @@
         <v>a.nome,</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -57508,10 +57508,10 @@
         <v>a.contrato,</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -57520,10 +57520,10 @@
         <v>a.hidrom,</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -57532,10 +57532,10 @@
         <v>a.cat,</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -57544,10 +57544,10 @@
         <v>ARRAY(SELECT b.asset_id FROM caesb_meters_assets AS b WHERE b.med = a.med) AS locais</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -57556,10 +57556,10 @@
         <v>ORDER BY a.med;</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -57567,10 +57567,10 @@
         <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -57582,7 +57582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -57610,10 +57610,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -57625,7 +57625,7 @@
         <v>caesb_data</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -57662,7 +57662,7 @@
         <v>caesb_data</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -57671,10 +57671,10 @@
         <v>WHERE med = $1 AND aamm BETWEEN $2 AND $3 ORDER BY caesb_data.aamm;</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -57682,10 +57682,10 @@
         <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -57693,10 +57693,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database/PostgreSQL-caesb.xlsx
+++ b/backend/database/PostgreSQL-caesb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="875" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="875" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="pre-raw" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
   <si>
     <t>Atual</t>
   </si>
@@ -572,7 +572,7 @@
       <sheetName val="function-all"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -601,7 +601,7 @@
       <sheetData sheetId="3">
         <row r="2">
           <cell r="A2" t="str">
-            <v>INSERT INTO assets VALUES ('CASF-000-000', 'Complexo Arquitetônico', 'Todos', FALSE, 0, 0, 0, '0', '0');</v>
+            <v>INSERT INTO assets VALUES ('CASF-000-000', 'Complexo Arquitetônico', 'Todos', FALSE, 0, 0, 0, '0', '0', 'A');</v>
           </cell>
         </row>
       </sheetData>
@@ -54185,7 +54185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -57330,10 +57330,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57552,24 +57552,36 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
+        <f>CONCATENATE("FROM ",'create-caesb_meters'!B1," AS a",)</f>
+        <v>FROM caesb_meters AS a</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="str">
         <f>CONCATENATE("ORDER BY a.",'create-caesb_meters_assets'!A2,";")</f>
         <v>ORDER BY a.med;</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="B19" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>140</v>
       </c>
     </row>

--- a/backend/database/PostgreSQL-caesb.xlsx
+++ b/backend/database/PostgreSQL-caesb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="875" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="875" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="pre-raw" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <t>)</t>
   </si>
   <si>
-    <t>LANGUAGE plpgsql AS $$ BEGIN</t>
-  </si>
-  <si>
     <t>RETURN QUERY SELECT</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>TE 20170014</t>
+  </si>
+  <si>
+    <t>LANGUAGE plpgsql STABLE AS $$ BEGIN</t>
   </si>
 </sst>
 </file>
@@ -53856,10 +53856,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -54090,10 +54090,10 @@
         <v>PRIMARY KEY (med, aamm)</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -54101,10 +54101,10 @@
         <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -54170,10 +54170,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -54585,7 +54585,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>65</v>
@@ -54615,7 +54615,7 @@
         <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B18,", '",C18,"');")</f>
@@ -54628,7 +54628,7 @@
         <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I19" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B19,", '",C19,"');")</f>
@@ -54641,7 +54641,7 @@
         <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B20,", '",C20,"');")</f>
@@ -54654,7 +54654,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I21" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B21,", '",C21,"');")</f>
@@ -54667,7 +54667,7 @@
         <v>205</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I22" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B22,", '",C22,"');")</f>
@@ -54680,7 +54680,7 @@
         <v>206</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I23" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B23,", '",C23,"');")</f>
@@ -54693,7 +54693,7 @@
         <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I24" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B24,", '",C24,"');")</f>
@@ -54706,7 +54706,7 @@
         <v>207</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I25" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B25,", '",C25,"');")</f>
@@ -54719,7 +54719,7 @@
         <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I26" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B26,", '",C26,"');")</f>
@@ -54732,7 +54732,7 @@
         <v>207</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I27" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B27,", '",C27,"');")</f>
@@ -54745,7 +54745,7 @@
         <v>207</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I28" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B28,", '",C28,"');")</f>
@@ -54758,7 +54758,7 @@
         <v>207</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I29" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B29,", '",C29,"');")</f>
@@ -54771,7 +54771,7 @@
         <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I30" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B30,", '",C30,"');")</f>
@@ -54784,7 +54784,7 @@
         <v>207</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I31" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B31,", '",C31,"');")</f>
@@ -54797,7 +54797,7 @@
         <v>208</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I32" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B32,", '",C32,"');")</f>
@@ -54810,7 +54810,7 @@
         <v>208</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I33" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B33,", '",C33,"');")</f>
@@ -54822,7 +54822,7 @@
         <v>209</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I34" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B34,", '",C34,"');")</f>
@@ -54835,7 +54835,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I35" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B35,", '",C35,"');")</f>
@@ -54848,7 +54848,7 @@
         <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I36" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B36,", '",C36,"');")</f>
@@ -54861,7 +54861,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I37" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B37,", '",C37,"');")</f>
@@ -54874,7 +54874,7 @@
         <v>211</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I38" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B38,", '",C38,"');")</f>
@@ -54887,7 +54887,7 @@
         <v>212</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I39" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B39,", '",C39,"');")</f>
@@ -54900,7 +54900,7 @@
         <v>212</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I40" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B40,", '",C40,"');")</f>
@@ -54913,7 +54913,7 @@
         <v>213</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I41" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B41,", '",C41,"');")</f>
@@ -54926,7 +54926,7 @@
         <v>213</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I42" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B42,", '",C42,"');")</f>
@@ -54939,7 +54939,7 @@
         <v>214</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I43" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B43,", '",C43,"');")</f>
@@ -57332,8 +57332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57446,24 +57446,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -57472,10 +57472,10 @@
         <v>a.med,</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -57484,10 +57484,10 @@
         <v>a.id,</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -57496,10 +57496,10 @@
         <v>a.nome,</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -57508,10 +57508,10 @@
         <v>a.contrato,</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -57520,10 +57520,10 @@
         <v>a.hidrom,</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -57532,10 +57532,10 @@
         <v>a.cat,</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -57544,10 +57544,10 @@
         <v>ARRAY(SELECT b.asset_id FROM caesb_meters_assets AS b WHERE b.med = a.med) AS locais</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -57556,10 +57556,10 @@
         <v>FROM caesb_meters AS a</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -57568,21 +57568,21 @@
         <v>ORDER BY a.med;</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -57594,8 +57594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57607,10 +57607,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C1" s="5" t="str">
         <f>CONCATENATE("(",'create-caesb_data'!B2,", ",'create-caesb_data'!B3,", ",'create-caesb_data'!B3,") RETURNS SETOF ",'create-caesb_data'!B1)</f>
@@ -57619,42 +57619,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>'create-caesb_data'!B1</f>
         <v>caesb_data</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5" t="str">
         <f>'create-caesb_data'!A3</f>
         <v>aamm</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="5" t="str">
         <f>CONCATENATE('create-caesb_data'!B1,".",'create-caesb_data'!A2,", ")</f>
@@ -57667,14 +57667,14 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="5" t="str">
         <f>'create-caesb_data'!B1</f>
         <v>caesb_data</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -57683,32 +57683,32 @@
         <v>WHERE med = $1 AND aamm BETWEEN $2 AND $3 ORDER BY caesb_data.aamm;</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database/PostgreSQL-caesb.xlsx
+++ b/backend/database/PostgreSQL-caesb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="875" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" tabRatio="875" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="pre-raw" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,10 @@
     <sheet name="create-caesb_meters_assets" sheetId="11" r:id="rId5"/>
     <sheet name="insert-meters" sheetId="8" r:id="rId6"/>
     <sheet name="insert-bills" sheetId="7" r:id="rId7"/>
-    <sheet name="function-bills" sheetId="13" r:id="rId8"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="125">
   <si>
     <t>Atual</t>
   </si>
@@ -304,33 +303,6 @@
     <t>real</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>END; $$;</t>
-  </si>
-  <si>
-    <t>CREATE OR REPLACE FUNCTION</t>
-  </si>
-  <si>
-    <t>get_caesb_bills</t>
-  </si>
-  <si>
-    <t>WHERE TRUE AND</t>
-  </si>
-  <si>
-    <t>ORDER BY</t>
-  </si>
-  <si>
-    <t>ELSE RETURN QUERY SELECT * FROM</t>
-  </si>
-  <si>
-    <t>END IF;</t>
-  </si>
-  <si>
     <t>309D-000-000</t>
   </si>
   <si>
@@ -412,9 +384,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>LANGUAGE plpgsql STABLE AS $$ BEGIN</t>
-  </si>
-  <si>
     <t>meter_id</t>
   </si>
   <si>
@@ -440,24 +409,6 @@
   </si>
   <si>
     <t>caesb_bills</t>
-  </si>
-  <si>
-    <t>meter</t>
-  </si>
-  <si>
-    <t>yyyymm1</t>
-  </si>
-  <si>
-    <t>yyyymm2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -559,16 +510,59 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="raw"/>
+      <sheetName val="create-contracts"/>
+      <sheetName val="insert-contracts"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v xml:space="preserve">CREATE TABLE </v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>contracts</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>contract_id</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>text</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INSERT INTO contracts VALUES ('CT-2016-0134', '2016-09-23', null, '2016-09-23', 'Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842');</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="raw0"/>
       <sheetName val="raw"/>
       <sheetName val="create-assets"/>
       <sheetName val="insert-assets"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
+          <cell r="A1" t="str">
+            <v>CREATE TABLE</v>
+          </cell>
           <cell r="B1" t="str">
             <v>assets</v>
           </cell>
@@ -582,38 +576,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="raw"/>
-      <sheetName val="create-contracts"/>
-      <sheetName val="insert-contracts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>contracts</v>
-          </cell>
-        </row>
+      <sheetData sheetId="3">
         <row r="2">
           <cell r="A2" t="str">
-            <v>contract_id</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>text</v>
+            <v>INSERT INTO assets VALUES ('CASF-000-000', 'CASF-000-000', 'Complexo Arquitetônico - Todos', 'Descrição do ativo', 'F', 0, 0, 0, 'Fabricante', '0', '0', '0', 'Garantia');</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -900,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -23029,10 +22998,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -53811,11 +53780,11 @@
         <v>contract</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f>'[2]create-contracts'!$B$2</f>
+        <f>'[1]create-contracts'!$B$2</f>
         <v>text</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f>CONCATENATE("NOT NULL REFERENCES ",'[2]create-contracts'!$B$1," (",'[2]create-contracts'!$A$2,"),")</f>
+        <f>CONCATENATE("NOT NULL REFERENCES ",'[1]create-contracts'!$B$1," (",'[1]create-contracts'!$A$2,"),")</f>
         <v>NOT NULL REFERENCES contracts (contract_id),</v>
       </c>
     </row>
@@ -53846,10 +53815,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -53877,7 +53846,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
@@ -54080,10 +54049,10 @@
         <v>PRIMARY KEY (meter_id, yyyymm)</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -54091,10 +54060,10 @@
         <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -54144,15 +54113,15 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
-        <f>'[1]create-assets'!$A$2</f>
+        <f>'[2]create-assets'!$A$2</f>
         <v>asset_id</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f>'[1]create-assets'!$B$2</f>
+        <f>'[2]create-assets'!$B$2</f>
         <v>text</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE("NOT NULL REFERENCES ",'[1]create-assets'!$B$1," (",'[1]create-assets'!$A$2,")")</f>
+        <f>CONCATENATE("NOT NULL REFERENCES ",'[2]create-assets'!$B$1," (",'[2]create-assets'!$A$2,")")</f>
         <v>NOT NULL REFERENCES assets (asset_id)</v>
       </c>
     </row>
@@ -54161,10 +54130,10 @@
         <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -54193,16 +54162,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
@@ -54225,7 +54194,7 @@
         <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
@@ -54252,7 +54221,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>38</v>
@@ -54279,7 +54248,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>43</v>
@@ -54306,7 +54275,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>44</v>
@@ -54333,7 +54302,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>49</v>
@@ -54360,7 +54329,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>52</v>
@@ -54387,7 +54356,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>55</v>
@@ -54414,7 +54383,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>58</v>
@@ -54441,7 +54410,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>62</v>
@@ -54468,7 +54437,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>65</v>
@@ -54495,7 +54464,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>68</v>
@@ -54522,7 +54491,7 @@
         <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>73</v>
@@ -54549,7 +54518,7 @@
         <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>71</v>
@@ -54576,7 +54545,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>59</v>
@@ -54606,7 +54575,7 @@
         <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I18" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B18,", '",C18,"');")</f>
@@ -54619,7 +54588,7 @@
         <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I19" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B19,", '",C19,"');")</f>
@@ -54632,7 +54601,7 @@
         <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I20" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B20,", '",C20,"');")</f>
@@ -54645,7 +54614,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I21" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B21,", '",C21,"');")</f>
@@ -54658,7 +54627,7 @@
         <v>205</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I22" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B22,", '",C22,"');")</f>
@@ -54671,7 +54640,7 @@
         <v>206</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I23" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B23,", '",C23,"');")</f>
@@ -54684,7 +54653,7 @@
         <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I24" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B24,", '",C24,"');")</f>
@@ -54697,7 +54666,7 @@
         <v>207</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I25" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B25,", '",C25,"');")</f>
@@ -54710,7 +54679,7 @@
         <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I26" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B26,", '",C26,"');")</f>
@@ -54723,7 +54692,7 @@
         <v>207</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I27" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B27,", '",C27,"');")</f>
@@ -54736,7 +54705,7 @@
         <v>207</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I28" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B28,", '",C28,"');")</f>
@@ -54749,7 +54718,7 @@
         <v>207</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I29" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B29,", '",C29,"');")</f>
@@ -54762,7 +54731,7 @@
         <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I30" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B30,", '",C30,"');")</f>
@@ -54775,7 +54744,7 @@
         <v>207</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I31" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B31,", '",C31,"');")</f>
@@ -54788,7 +54757,7 @@
         <v>208</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I32" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B32,", '",C32,"');")</f>
@@ -54801,7 +54770,7 @@
         <v>208</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I33" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B33,", '",C33,"');")</f>
@@ -54813,7 +54782,7 @@
         <v>209</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I34" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B34,", '",C34,"');")</f>
@@ -54826,7 +54795,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I35" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B35,", '",C35,"');")</f>
@@ -54839,7 +54808,7 @@
         <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I36" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B36,", '",C36,"');")</f>
@@ -54852,7 +54821,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I37" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B37,", '",C37,"');")</f>
@@ -54865,7 +54834,7 @@
         <v>211</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I38" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B38,", '",C38,"');")</f>
@@ -54878,7 +54847,7 @@
         <v>212</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I39" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B39,", '",C39,"');")</f>
@@ -54891,7 +54860,7 @@
         <v>212</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I40" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B40,", '",C40,"');")</f>
@@ -54904,7 +54873,7 @@
         <v>213</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I41" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B41,", '",C41,"');")</f>
@@ -54917,7 +54886,7 @@
         <v>213</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I42" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B42,", '",C42,"');")</f>
@@ -54930,7 +54899,7 @@
         <v>214</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I43" s="4" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-caesb_meters_assets'!$B$1," VALUES (",B43,", '",C43,"');")</f>
@@ -54947,8 +54916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A394"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57317,181 +57286,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="84.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <f>'create-caesb_bills'!B2</f>
-        <v>integer</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="7" t="str">
-        <f>'create-caesb_bills'!B3</f>
-        <v>integer</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="7" t="str">
-        <f>'create-caesb_bills'!B3</f>
-        <v>integer</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="str">
-        <f>CONCATENATE("RETURNS SETOF ",'create-caesb_bills'!B1)</f>
-        <v>RETURNS SETOF caesb_bills</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
-        <f>CONCATENATE("IF ",A2," = 299 THEN RETURN QUERY SELECT * FROM ")</f>
-        <v xml:space="preserve">IF meter = 299 THEN RETURN QUERY SELECT * FROM </v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f>'create-caesb_bills'!B1</f>
-        <v>caesb_bills</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f>'create-caesb_bills'!A3</f>
-        <v>yyyymm</v>
-      </c>
-      <c r="C8" s="7" t="str">
-        <f>CONCATENATE("BETWEEN ",A3," AND ",A4)</f>
-        <v>BETWEEN yyyymm1 AND yyyymm2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="4" t="str">
-        <f>CONCATENATE('create-caesb_bills'!B1,".",'create-caesb_bills'!A2,", ")</f>
-        <v xml:space="preserve">caesb_bills.meter_id, </v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f>CONCATENATE('create-caesb_bills'!B1,".",'create-caesb_bills'!A3,";")</f>
-        <v>caesb_bills.yyyymm;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f>'create-caesb_bills'!B1</f>
-        <v>caesb_bills</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f>CONCATENATE("WHERE ",'create-caesb_bills'!A2," = ",A2," AND ")</f>
-        <v xml:space="preserve">WHERE meter_id = meter AND </v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f>B8</f>
-        <v>yyyymm</v>
-      </c>
-      <c r="C11" s="7" t="str">
-        <f>C8</f>
-        <v>BETWEEN yyyymm1 AND yyyymm2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>